--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_PUBCON_yoy_AVERAGE_1_9_full.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_PUBCON_yoy_AVERAGE_1_9_full.xlsx
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E52"/>
+  <dimension ref="A1:E53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -417,863 +417,886 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>39583</v>
+        <v>39400</v>
       </c>
       <c r="B2">
+        <v>2007</v>
+      </c>
+      <c r="C2">
+        <v>1.75539628881467</v>
+      </c>
+      <c r="D2">
         <v>2008</v>
       </c>
-      <c r="D2">
-        <v>2009</v>
-      </c>
       <c r="E2">
-        <v>1.642917982900616</v>
+        <v>0.2337905658324813</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>39765</v>
+        <v>39583</v>
       </c>
       <c r="B3">
         <v>2008</v>
       </c>
+      <c r="C3">
+        <v>2.071001150990881</v>
+      </c>
       <c r="D3">
         <v>2009</v>
       </c>
       <c r="E3">
-        <v>1.868222954029575</v>
+        <v>5.125398993052044</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>39948</v>
+        <v>39765</v>
       </c>
       <c r="B4">
+        <v>2008</v>
+      </c>
+      <c r="C4">
+        <v>2.213911448916162</v>
+      </c>
+      <c r="D4">
         <v>2009</v>
       </c>
-      <c r="C4">
-        <v>1.723071728558834</v>
-      </c>
-      <c r="D4">
-        <v>2010</v>
-      </c>
       <c r="E4">
-        <v>2.645042900775185</v>
+        <v>3.386383090739953</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>40130</v>
+        <v>39948</v>
       </c>
       <c r="B5">
         <v>2009</v>
       </c>
       <c r="C5">
-        <v>1.834695583582491</v>
+        <v>0.8787496612562951</v>
       </c>
       <c r="D5">
         <v>2010</v>
       </c>
       <c r="E5">
-        <v>2.036523794057565</v>
+        <v>1.013823151053095</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>40310</v>
+        <v>40130</v>
       </c>
       <c r="B6">
+        <v>2009</v>
+      </c>
+      <c r="C6">
+        <v>2.533533936850563</v>
+      </c>
+      <c r="D6">
         <v>2010</v>
       </c>
-      <c r="C6">
-        <v>1.914440043391008</v>
-      </c>
-      <c r="D6">
-        <v>2011</v>
-      </c>
       <c r="E6">
-        <v>1.305734385870427</v>
+        <v>0.984293482975751</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>40494</v>
+        <v>40310</v>
       </c>
       <c r="B7">
         <v>2010</v>
       </c>
       <c r="C7">
-        <v>1.767835936772166</v>
+        <v>2.723861837742825</v>
       </c>
       <c r="D7">
         <v>2011</v>
       </c>
       <c r="E7">
-        <v>0.9068345406550105</v>
+        <v>4.356912452939476</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>40676</v>
+        <v>40494</v>
       </c>
       <c r="B8">
+        <v>2010</v>
+      </c>
+      <c r="C8">
+        <v>2.088987486264915</v>
+      </c>
+      <c r="D8">
         <v>2011</v>
       </c>
-      <c r="C8">
-        <v>0.9805984725731243</v>
-      </c>
-      <c r="D8">
-        <v>2012</v>
-      </c>
       <c r="E8">
-        <v>1.299987570693029</v>
+        <v>3.612753212925401</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>40862</v>
+        <v>40676</v>
       </c>
       <c r="B9">
         <v>2011</v>
       </c>
       <c r="C9">
-        <v>1.074400434091016</v>
+        <v>2.431458940167008</v>
       </c>
       <c r="D9">
         <v>2012</v>
       </c>
       <c r="E9">
-        <v>1.170527987331438</v>
+        <v>5.259925231829898</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>41044</v>
+        <v>40862</v>
       </c>
       <c r="B10">
+        <v>2011</v>
+      </c>
+      <c r="C10">
+        <v>1.212544822741002</v>
+      </c>
+      <c r="D10">
         <v>2012</v>
       </c>
-      <c r="C10">
-        <v>0.8782406444933333</v>
-      </c>
-      <c r="D10">
-        <v>2013</v>
-      </c>
       <c r="E10">
-        <v>0.8990150582872447</v>
+        <v>2.158838189283174</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>41228</v>
+        <v>41044</v>
       </c>
       <c r="B11">
         <v>2012</v>
       </c>
       <c r="C11">
-        <v>0.9212998022035679</v>
+        <v>1.447930496829541</v>
       </c>
       <c r="D11">
         <v>2013</v>
       </c>
       <c r="E11">
-        <v>1.183248538087023</v>
+        <v>0.7814198158142105</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>41409</v>
+        <v>41228</v>
       </c>
       <c r="B12">
+        <v>2012</v>
+      </c>
+      <c r="C12">
+        <v>1.196776590518644</v>
+      </c>
+      <c r="D12">
         <v>2013</v>
       </c>
-      <c r="C12">
-        <v>1.128708860122107</v>
-      </c>
-      <c r="D12">
-        <v>2014</v>
-      </c>
       <c r="E12">
-        <v>1.616267129640914</v>
+        <v>1.194058515117336</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>41592</v>
+        <v>41409</v>
       </c>
       <c r="B13">
         <v>2013</v>
       </c>
       <c r="C13">
-        <v>1.141837882844188</v>
+        <v>0.3494148569448852</v>
       </c>
       <c r="D13">
         <v>2014</v>
       </c>
       <c r="E13">
-        <v>1.390416240251269</v>
+        <v>-0.5632089058212553</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>41774</v>
+        <v>41592</v>
       </c>
       <c r="B14">
+        <v>2013</v>
+      </c>
+      <c r="C14">
+        <v>0.4712609263772594</v>
+      </c>
+      <c r="D14">
         <v>2014</v>
       </c>
-      <c r="C14">
-        <v>1.35473889964699</v>
-      </c>
-      <c r="D14">
-        <v>2015</v>
-      </c>
       <c r="E14">
-        <v>1.144882766247513</v>
+        <v>1.409662779709819</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>41957</v>
+        <v>41774</v>
       </c>
       <c r="B15">
         <v>2014</v>
       </c>
       <c r="C15">
-        <v>1.335361538769475</v>
+        <v>0.6742451383205061</v>
       </c>
       <c r="D15">
         <v>2015</v>
       </c>
       <c r="E15">
-        <v>1.229058693031737</v>
+        <v>1.713290556413605</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>42137</v>
+        <v>41957</v>
       </c>
       <c r="B16">
+        <v>2014</v>
+      </c>
+      <c r="C16">
+        <v>0.8783377572271434</v>
+      </c>
+      <c r="D16">
         <v>2015</v>
       </c>
-      <c r="C16">
-        <v>1.327429744348141</v>
-      </c>
-      <c r="D16">
-        <v>2016</v>
-      </c>
       <c r="E16">
-        <v>1.544398447820039</v>
+        <v>2.372074663906587</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>42321</v>
+        <v>42137</v>
       </c>
       <c r="B17">
         <v>2015</v>
       </c>
       <c r="C17">
-        <v>1.202048372526998</v>
+        <v>2.178094576990031</v>
       </c>
       <c r="D17">
         <v>2016</v>
       </c>
       <c r="E17">
-        <v>1.202839932117894</v>
+        <v>2.743122680804988</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
-        <v>42503</v>
+        <v>42321</v>
       </c>
       <c r="B18">
+        <v>2015</v>
+      </c>
+      <c r="C18">
+        <v>2.29066283401107</v>
+      </c>
+      <c r="D18">
         <v>2016</v>
       </c>
-      <c r="C18">
-        <v>2.800387729605491</v>
-      </c>
-      <c r="D18">
-        <v>2017</v>
-      </c>
       <c r="E18">
-        <v>2.740627999849621</v>
+        <v>4.595879021798321</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2">
-        <v>42689</v>
+        <v>42503</v>
       </c>
       <c r="B19">
         <v>2016</v>
       </c>
       <c r="C19">
-        <v>2.677488680362305</v>
+        <v>2.623600596229347</v>
       </c>
       <c r="D19">
         <v>2017</v>
       </c>
       <c r="E19">
-        <v>2.144206113168812</v>
+        <v>1.891220645890002</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2">
-        <v>42867</v>
+        <v>42689</v>
       </c>
       <c r="B20">
+        <v>2016</v>
+      </c>
+      <c r="C20">
+        <v>4.109890522944348</v>
+      </c>
+      <c r="D20">
         <v>2017</v>
       </c>
-      <c r="C20">
-        <v>2.826803441326264</v>
-      </c>
-      <c r="D20">
-        <v>2018</v>
-      </c>
       <c r="E20">
-        <v>3.443596172006225</v>
+        <v>4.034919509273061</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2">
-        <v>43053</v>
+        <v>42867</v>
       </c>
       <c r="B21">
         <v>2017</v>
       </c>
       <c r="C21">
-        <v>2.466954516646402</v>
+        <v>1.715791310593229</v>
       </c>
       <c r="D21">
         <v>2018</v>
       </c>
       <c r="E21">
-        <v>1.557722995268374</v>
+        <v>1.687339605296523</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2">
-        <v>43145</v>
+        <v>43053</v>
       </c>
       <c r="B22">
+        <v>2017</v>
+      </c>
+      <c r="C22">
+        <v>1.336316831462692</v>
+      </c>
+      <c r="D22">
         <v>2018</v>
       </c>
-      <c r="C22">
-        <v>1.102562986847966</v>
-      </c>
-      <c r="D22">
-        <v>2019</v>
-      </c>
       <c r="E22">
-        <v>0.6821058885309039</v>
+        <v>0.02883756256675252</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2">
-        <v>43235</v>
+        <v>43145</v>
       </c>
       <c r="B23">
         <v>2018</v>
       </c>
       <c r="C23">
-        <v>1.147915744719907</v>
+        <v>1.862609889357314</v>
       </c>
       <c r="D23">
         <v>2019</v>
       </c>
       <c r="E23">
-        <v>0.8024032016000104</v>
+        <v>2.016108144125295</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2">
-        <v>43326</v>
+        <v>43235</v>
       </c>
       <c r="B24">
         <v>2018</v>
       </c>
       <c r="C24">
-        <v>1.375801240890873</v>
+        <v>0.3317798769387315</v>
       </c>
       <c r="D24">
         <v>2019</v>
       </c>
       <c r="E24">
-        <v>1.939318063381967</v>
+        <v>-2.079848588862154</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2">
-        <v>43418</v>
+        <v>43326</v>
       </c>
       <c r="B25">
         <v>2018</v>
       </c>
       <c r="C25">
-        <v>1.401189216021326</v>
+        <v>1.369357173039498</v>
       </c>
       <c r="D25">
         <v>2019</v>
       </c>
       <c r="E25">
-        <v>2.269858007878178</v>
+        <v>2.147322685428343</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2">
-        <v>43510</v>
+        <v>43418</v>
       </c>
       <c r="B26">
+        <v>2018</v>
+      </c>
+      <c r="C26">
+        <v>1.197912858979611</v>
+      </c>
+      <c r="D26">
         <v>2019</v>
       </c>
-      <c r="C26">
-        <v>2.015202117634529</v>
-      </c>
-      <c r="D26">
-        <v>2020</v>
-      </c>
       <c r="E26">
-        <v>2.015050062499935</v>
+        <v>0.9262553939922924</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2">
-        <v>43600</v>
+        <v>43510</v>
       </c>
       <c r="B27">
         <v>2019</v>
       </c>
       <c r="C27">
-        <v>2.267590462984637</v>
+        <v>4.206171608278875</v>
       </c>
       <c r="D27">
         <v>2020</v>
       </c>
       <c r="E27">
-        <v>2.686214311255841</v>
+        <v>6.673057635354218</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2">
-        <v>43691</v>
+        <v>43600</v>
       </c>
       <c r="B28">
         <v>2019</v>
       </c>
       <c r="C28">
-        <v>2.29455014398936</v>
+        <v>0.8934982674867697</v>
       </c>
       <c r="D28">
         <v>2020</v>
       </c>
       <c r="E28">
-        <v>2.820666289135976</v>
+        <v>-1.194610791899997</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2">
-        <v>43783</v>
+        <v>43691</v>
       </c>
       <c r="B29">
         <v>2019</v>
       </c>
       <c r="C29">
-        <v>2.217567799050979</v>
+        <v>1.749048192229496</v>
       </c>
       <c r="D29">
         <v>2020</v>
       </c>
       <c r="E29">
-        <v>1.827057475403548</v>
+        <v>2.097071260293459</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2">
-        <v>43875</v>
+        <v>43783</v>
       </c>
       <c r="B30">
+        <v>2019</v>
+      </c>
+      <c r="C30">
+        <v>1.727537197898665</v>
+      </c>
+      <c r="D30">
         <v>2020</v>
       </c>
-      <c r="C30">
-        <v>2.13231767674078</v>
-      </c>
-      <c r="D30">
-        <v>2021</v>
-      </c>
       <c r="E30">
-        <v>2.096280316316212</v>
+        <v>2.928189816005666</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2">
-        <v>43966</v>
+        <v>43875</v>
       </c>
       <c r="B31">
         <v>2020</v>
       </c>
       <c r="C31">
-        <v>2.254834539814499</v>
+        <v>2.306826470345347</v>
       </c>
       <c r="D31">
         <v>2021</v>
       </c>
       <c r="E31">
-        <v>2.42168652960002</v>
+        <v>1.405199465409468</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2">
-        <v>44068</v>
+        <v>43966</v>
       </c>
       <c r="B32">
         <v>2020</v>
       </c>
       <c r="C32">
-        <v>2.139672475020404</v>
+        <v>1.979074033580819</v>
       </c>
       <c r="D32">
         <v>2021</v>
       </c>
       <c r="E32">
-        <v>1.545546182835023</v>
+        <v>0.8024032015999882</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2">
-        <v>44159</v>
+        <v>44068</v>
       </c>
       <c r="B33">
         <v>2020</v>
       </c>
       <c r="C33">
-        <v>2.139672475020404</v>
+        <v>2.980209378995857</v>
       </c>
       <c r="D33">
         <v>2021</v>
       </c>
       <c r="E33">
-        <v>2.435621895369477</v>
+        <v>2.026374749120596</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2">
-        <v>44251</v>
+        <v>44159</v>
       </c>
       <c r="B34">
+        <v>2020</v>
+      </c>
+      <c r="C34">
+        <v>3.647228437274408</v>
+      </c>
+      <c r="D34">
         <v>2021</v>
       </c>
-      <c r="C34">
-        <v>2.435621895369477</v>
-      </c>
-      <c r="D34">
-        <v>2022</v>
-      </c>
       <c r="E34">
-        <v>2.829537440100038</v>
+        <v>3.673004547855219</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2">
-        <v>44341</v>
+        <v>44251</v>
       </c>
       <c r="B35">
         <v>2021</v>
       </c>
       <c r="C35">
-        <v>2.512561578013339</v>
+        <v>2.128447415063373</v>
       </c>
       <c r="D35">
         <v>2022</v>
       </c>
       <c r="E35">
-        <v>3.213286701327234</v>
+        <v>2.829537440100038</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2">
-        <v>44432</v>
+        <v>44341</v>
       </c>
       <c r="B36">
         <v>2021</v>
       </c>
       <c r="C36">
-        <v>2.100991693542231</v>
+        <v>2.552476296061434</v>
       </c>
       <c r="D36">
         <v>2022</v>
       </c>
       <c r="E36">
-        <v>-2.01445751349455</v>
+        <v>3.086122033237126</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2">
-        <v>44525</v>
+        <v>44432</v>
       </c>
       <c r="B37">
         <v>2021</v>
       </c>
       <c r="C37">
-        <v>2.100991693542231</v>
+        <v>1.954146674711188</v>
       </c>
       <c r="D37">
         <v>2022</v>
       </c>
       <c r="E37">
-        <v>1.224867235761695</v>
+        <v>-1.871731962523027</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2">
-        <v>44617</v>
+        <v>44525</v>
       </c>
       <c r="B38">
+        <v>2021</v>
+      </c>
+      <c r="C38">
+        <v>2.777797690741424</v>
+      </c>
+      <c r="D38">
         <v>2022</v>
       </c>
-      <c r="C38">
-        <v>0.4688361044248079</v>
-      </c>
-      <c r="D38">
-        <v>2023</v>
-      </c>
       <c r="E38">
-        <v>6.661338147750939E-14</v>
+        <v>1.579011422502852</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="2">
-        <v>44706</v>
+        <v>44617</v>
       </c>
       <c r="B39">
         <v>2022</v>
       </c>
       <c r="C39">
-        <v>0.8462221700420658</v>
+        <v>1.014265466411501</v>
       </c>
       <c r="D39">
         <v>2023</v>
       </c>
       <c r="E39">
-        <v>1.888640497802463</v>
+        <v>6.661338147750939E-14</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="2">
-        <v>44798</v>
+        <v>44706</v>
       </c>
       <c r="B40">
         <v>2022</v>
       </c>
       <c r="C40">
-        <v>0.8967077601845341</v>
+        <v>0.3901728183783204</v>
       </c>
       <c r="D40">
         <v>2023</v>
       </c>
       <c r="E40">
-        <v>2.550266184385341</v>
+        <v>1.906002353653125</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2">
-        <v>44890</v>
+        <v>44798</v>
       </c>
       <c r="B41">
         <v>2022</v>
       </c>
       <c r="C41">
-        <v>0.8967077601845341</v>
+        <v>2.69102598245059</v>
       </c>
       <c r="D41">
         <v>2023</v>
       </c>
       <c r="E41">
-        <v>-1.719962984008072</v>
+        <v>3.932998599265303</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2">
-        <v>44981</v>
+        <v>44890</v>
       </c>
       <c r="B42">
+        <v>2022</v>
+      </c>
+      <c r="C42">
+        <v>0.6994919452575576</v>
+      </c>
+      <c r="D42">
         <v>2023</v>
       </c>
-      <c r="C42">
-        <v>-0.9791742734213349</v>
-      </c>
-      <c r="D42">
-        <v>2024</v>
-      </c>
       <c r="E42">
-        <v>-1.985049937500005</v>
+        <v>-2.087978868409623</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="2">
-        <v>45071</v>
+        <v>44981</v>
       </c>
       <c r="B43">
         <v>2023</v>
       </c>
       <c r="C43">
-        <v>1.496538623068333</v>
+        <v>-0.6123001687638907</v>
       </c>
       <c r="D43">
         <v>2024</v>
       </c>
       <c r="E43">
-        <v>10.79826000521473</v>
+        <v>-1.985049937500016</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="2">
-        <v>45163</v>
+        <v>45071</v>
       </c>
       <c r="B44">
         <v>2023</v>
       </c>
       <c r="C44">
-        <v>0.782207885866093</v>
+        <v>-1.906744368254853</v>
       </c>
       <c r="D44">
         <v>2024</v>
       </c>
       <c r="E44">
-        <v>1.255221841651988</v>
+        <v>9.556389850000446</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="2">
-        <v>45254</v>
+        <v>45163</v>
       </c>
       <c r="B45">
         <v>2023</v>
       </c>
       <c r="C45">
-        <v>0.782207885866093</v>
+        <v>-1.669605379075589</v>
       </c>
       <c r="D45">
         <v>2024</v>
       </c>
       <c r="E45">
-        <v>1.762511516035903</v>
+        <v>-0.4516362914963601</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="2">
-        <v>45345</v>
+        <v>45254</v>
       </c>
       <c r="B46">
+        <v>2023</v>
+      </c>
+      <c r="C46">
+        <v>-1.432689847121871</v>
+      </c>
+      <c r="D46">
         <v>2024</v>
       </c>
-      <c r="C46">
-        <v>1.305647119275166</v>
-      </c>
-      <c r="D46">
-        <v>2025</v>
-      </c>
       <c r="E46">
-        <v>-0.3994003998999851</v>
+        <v>0.1172571542027212</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2">
-        <v>45436</v>
+        <v>45345</v>
       </c>
       <c r="B47">
         <v>2024</v>
       </c>
       <c r="C47">
-        <v>1.533774754225425</v>
+        <v>0.5893837960974757</v>
       </c>
       <c r="D47">
         <v>2025</v>
       </c>
       <c r="E47">
-        <v>0.7270088090218563</v>
+        <v>-0.3994003998999518</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="2">
-        <v>45534</v>
+        <v>45436</v>
       </c>
       <c r="B48">
         <v>2024</v>
       </c>
       <c r="C48">
-        <v>1.508385007449875</v>
+        <v>1.152760694685062</v>
       </c>
       <c r="D48">
         <v>2025</v>
       </c>
       <c r="E48">
-        <v>0.4005252624873723</v>
+        <v>0.6444718444275521</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="2">
-        <v>45618</v>
+        <v>45534</v>
       </c>
       <c r="B49">
         <v>2024</v>
       </c>
       <c r="C49">
-        <v>1.508385007449875</v>
+        <v>1.780300968358017</v>
       </c>
       <c r="D49">
         <v>2025</v>
       </c>
       <c r="E49">
-        <v>0.4005252624873723</v>
+        <v>0.8104204674762139</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="2">
-        <v>45713</v>
+        <v>45618</v>
       </c>
       <c r="B50">
+        <v>2024</v>
+      </c>
+      <c r="C50">
+        <v>2.033479419175133</v>
+      </c>
+      <c r="D50">
         <v>2025</v>
       </c>
-      <c r="C50">
-        <v>0.2500499125062117</v>
-      </c>
-      <c r="D50">
-        <v>2026</v>
-      </c>
       <c r="E50">
-        <v>0</v>
+        <v>1.317145539573517</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="2">
-        <v>45800</v>
+        <v>45713</v>
       </c>
       <c r="B51">
         <v>2025</v>
       </c>
       <c r="C51">
-        <v>0.6266141624900579</v>
+        <v>2.506151357112452</v>
       </c>
       <c r="D51">
         <v>2026</v>
       </c>
       <c r="E51">
-        <v>1.888640497802352</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="2">
-        <v>45891</v>
+        <v>45800</v>
       </c>
       <c r="B52">
         <v>2025</v>
       </c>
       <c r="C52">
-        <v>0.6014263374495288</v>
+        <v>2.287212358310953</v>
       </c>
       <c r="D52">
         <v>2026</v>
       </c>
       <c r="E52">
-        <v>1.559099514818363</v>
+        <v>1.801540135156521</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="2">
+        <v>45891</v>
+      </c>
+      <c r="B53">
+        <v>2025</v>
+      </c>
+      <c r="C53">
+        <v>2.481068287768839</v>
+      </c>
+      <c r="D53">
+        <v>2026</v>
+      </c>
+      <c r="E53">
+        <v>1.642273543406181</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_PUBCON_yoy_AVERAGE_1_9_full.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_PUBCON_yoy_AVERAGE_1_9_full.xlsx
@@ -950,13 +950,13 @@
         <v>2020</v>
       </c>
       <c r="C33">
-        <v>2.980209378995857</v>
+        <v>3.265677646667919</v>
       </c>
       <c r="D33">
         <v>2021</v>
       </c>
       <c r="E33">
-        <v>2.026374749120596</v>
+        <v>5.715169758464977</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -973,7 +973,7 @@
         <v>2021</v>
       </c>
       <c r="E34">
-        <v>3.673004547855219</v>
+        <v>3.828814763561761</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -984,13 +984,13 @@
         <v>2021</v>
       </c>
       <c r="C35">
-        <v>2.128447415063373</v>
+        <v>0.297438131004113</v>
       </c>
       <c r="D35">
         <v>2022</v>
       </c>
       <c r="E35">
-        <v>2.829537440100038</v>
+        <v>-2.009776081564674</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1001,13 +1001,13 @@
         <v>2021</v>
       </c>
       <c r="C36">
-        <v>2.552476296061434</v>
+        <v>2.091985819293041</v>
       </c>
       <c r="D36">
         <v>2022</v>
       </c>
       <c r="E36">
-        <v>3.086122033237126</v>
+        <v>0.8023688159249254</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1018,13 +1018,13 @@
         <v>2021</v>
       </c>
       <c r="C37">
-        <v>1.954146674711188</v>
+        <v>2.62544141464085</v>
       </c>
       <c r="D37">
         <v>2022</v>
       </c>
       <c r="E37">
-        <v>-1.871731962523027</v>
+        <v>6.778609849419781</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1041,7 +1041,7 @@
         <v>2022</v>
       </c>
       <c r="E38">
-        <v>1.579011422502852</v>
+        <v>-5.123136062091282</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1052,13 +1052,13 @@
         <v>2022</v>
       </c>
       <c r="C39">
-        <v>1.014265466411501</v>
+        <v>2.475264839201441</v>
       </c>
       <c r="D39">
         <v>2023</v>
       </c>
       <c r="E39">
-        <v>6.661338147750939E-14</v>
+        <v>3.88777093019641</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1069,13 +1069,13 @@
         <v>2022</v>
       </c>
       <c r="C40">
-        <v>0.3901728183783204</v>
+        <v>0.06579575777909685</v>
       </c>
       <c r="D40">
         <v>2023</v>
       </c>
       <c r="E40">
-        <v>1.906002353653125</v>
+        <v>0.2740865344839527</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1086,13 +1086,13 @@
         <v>2022</v>
       </c>
       <c r="C41">
-        <v>2.69102598245059</v>
+        <v>3.119113392553619</v>
       </c>
       <c r="D41">
         <v>2023</v>
       </c>
       <c r="E41">
-        <v>3.932998599265303</v>
+        <v>9.57101224363932</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1109,7 +1109,7 @@
         <v>2023</v>
       </c>
       <c r="E42">
-        <v>-2.087978868409623</v>
+        <v>0.3969573948624072</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1120,13 +1120,13 @@
         <v>2023</v>
       </c>
       <c r="C43">
-        <v>-0.6123001687638907</v>
+        <v>1.076435582022306</v>
       </c>
       <c r="D43">
         <v>2024</v>
       </c>
       <c r="E43">
-        <v>-1.985049937500016</v>
+        <v>2.516861149382388</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1137,13 +1137,13 @@
         <v>2023</v>
       </c>
       <c r="C44">
-        <v>-1.906744368254853</v>
+        <v>-7.338081973668542</v>
       </c>
       <c r="D44">
         <v>2024</v>
       </c>
       <c r="E44">
-        <v>9.556389850000446</v>
+        <v>-18.16237400185398</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1154,13 +1154,13 @@
         <v>2023</v>
       </c>
       <c r="C45">
-        <v>-1.669605379075589</v>
+        <v>-1.650648527511467</v>
       </c>
       <c r="D45">
         <v>2024</v>
       </c>
       <c r="E45">
-        <v>-0.4516362914963601</v>
+        <v>-0.2006752520846367</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1177,7 +1177,7 @@
         <v>2024</v>
       </c>
       <c r="E46">
-        <v>0.1172571542027212</v>
+        <v>0.1752798163574099</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1188,13 +1188,13 @@
         <v>2024</v>
       </c>
       <c r="C47">
-        <v>0.5893837960974757</v>
+        <v>1.266436499884915</v>
       </c>
       <c r="D47">
         <v>2025</v>
       </c>
       <c r="E47">
-        <v>-0.3994003998999518</v>
+        <v>1.396505962682815</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1205,13 +1205,13 @@
         <v>2024</v>
       </c>
       <c r="C48">
-        <v>1.152760694685062</v>
+        <v>0.6787613333699927</v>
       </c>
       <c r="D48">
         <v>2025</v>
       </c>
       <c r="E48">
-        <v>0.6444718444275521</v>
+        <v>-1.696610696428325</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1222,13 +1222,13 @@
         <v>2024</v>
       </c>
       <c r="C49">
-        <v>1.780300968358017</v>
+        <v>2.019219802844563</v>
       </c>
       <c r="D49">
         <v>2025</v>
       </c>
       <c r="E49">
-        <v>0.8104204674762139</v>
+        <v>3.906556425946905</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1245,7 +1245,7 @@
         <v>2025</v>
       </c>
       <c r="E50">
-        <v>1.317145539573517</v>
+        <v>2.166483625738302</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1256,13 +1256,13 @@
         <v>2025</v>
       </c>
       <c r="C51">
-        <v>2.506151357112452</v>
+        <v>3.147579643557941</v>
       </c>
       <c r="D51">
         <v>2026</v>
       </c>
       <c r="E51">
-        <v>0</v>
+        <v>1.674449191465355</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1273,13 +1273,13 @@
         <v>2025</v>
       </c>
       <c r="C52">
-        <v>2.287212358310953</v>
+        <v>1.643634172128272</v>
       </c>
       <c r="D52">
         <v>2026</v>
       </c>
       <c r="E52">
-        <v>1.801540135156521</v>
+        <v>-1.362365718491865</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1290,13 +1290,13 @@
         <v>2025</v>
       </c>
       <c r="C53">
-        <v>2.481068287768839</v>
+        <v>2.581716327283545</v>
       </c>
       <c r="D53">
         <v>2026</v>
       </c>
       <c r="E53">
-        <v>1.642273543406181</v>
+        <v>2.939709541563884</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_PUBCON_yoy_AVERAGE_1_9_full.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_PUBCON_yoy_AVERAGE_1_9_full.xlsx
@@ -422,14 +422,8 @@
       <c r="B2">
         <v>2007</v>
       </c>
-      <c r="C2">
-        <v>1.75539628881467</v>
-      </c>
       <c r="D2">
         <v>2008</v>
-      </c>
-      <c r="E2">
-        <v>0.2337905658324813</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -439,9 +433,6 @@
       <c r="B3">
         <v>2008</v>
       </c>
-      <c r="C3">
-        <v>2.071001150990881</v>
-      </c>
       <c r="D3">
         <v>2009</v>
       </c>
@@ -456,14 +447,11 @@
       <c r="B4">
         <v>2008</v>
       </c>
-      <c r="C4">
-        <v>2.213911448916162</v>
-      </c>
       <c r="D4">
         <v>2009</v>
       </c>
       <c r="E4">
-        <v>3.386383090739953</v>
+        <v>3.386383090739975</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -474,13 +462,13 @@
         <v>2009</v>
       </c>
       <c r="C5">
-        <v>0.8787496612562951</v>
+        <v>0.8787496612563173</v>
       </c>
       <c r="D5">
         <v>2010</v>
       </c>
       <c r="E5">
-        <v>1.013823151053095</v>
+        <v>1.013823151053028</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -491,13 +479,13 @@
         <v>2009</v>
       </c>
       <c r="C6">
-        <v>2.533533936850563</v>
+        <v>2.533533936850585</v>
       </c>
       <c r="D6">
         <v>2010</v>
       </c>
       <c r="E6">
-        <v>0.984293482975751</v>
+        <v>0.9842934829757288</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -514,7 +502,7 @@
         <v>2011</v>
       </c>
       <c r="E7">
-        <v>4.356912452939476</v>
+        <v>4.356912452939454</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -531,7 +519,7 @@
         <v>2011</v>
       </c>
       <c r="E8">
-        <v>3.612753212925401</v>
+        <v>3.612753212925446</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -542,13 +530,13 @@
         <v>2011</v>
       </c>
       <c r="C9">
-        <v>2.431458940167008</v>
+        <v>2.431458940166964</v>
       </c>
       <c r="D9">
         <v>2012</v>
       </c>
       <c r="E9">
-        <v>5.259925231829898</v>
+        <v>5.259925231829876</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -559,13 +547,13 @@
         <v>2011</v>
       </c>
       <c r="C10">
-        <v>1.212544822741002</v>
+        <v>1.21254482274098</v>
       </c>
       <c r="D10">
         <v>2012</v>
       </c>
       <c r="E10">
-        <v>2.158838189283174</v>
+        <v>2.158838189283219</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -576,7 +564,7 @@
         <v>2012</v>
       </c>
       <c r="C11">
-        <v>1.447930496829541</v>
+        <v>1.447930496829564</v>
       </c>
       <c r="D11">
         <v>2013</v>
@@ -599,7 +587,7 @@
         <v>2013</v>
       </c>
       <c r="E12">
-        <v>1.194058515117336</v>
+        <v>1.194058515117313</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -616,7 +604,7 @@
         <v>2014</v>
       </c>
       <c r="E13">
-        <v>-0.5632089058212553</v>
+        <v>-0.563208905821222</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -627,13 +615,13 @@
         <v>2013</v>
       </c>
       <c r="C14">
-        <v>0.4712609263772594</v>
+        <v>0.4712609263772816</v>
       </c>
       <c r="D14">
         <v>2014</v>
       </c>
       <c r="E14">
-        <v>1.409662779709819</v>
+        <v>1.409662779709797</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -644,13 +632,13 @@
         <v>2014</v>
       </c>
       <c r="C15">
-        <v>0.6742451383205061</v>
+        <v>0.6742451383204839</v>
       </c>
       <c r="D15">
         <v>2015</v>
       </c>
       <c r="E15">
-        <v>1.713290556413605</v>
+        <v>1.713290556413583</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -701,7 +689,7 @@
         <v>2016</v>
       </c>
       <c r="E18">
-        <v>4.595879021798321</v>
+        <v>4.595879021798344</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -729,7 +717,7 @@
         <v>2016</v>
       </c>
       <c r="C20">
-        <v>4.109890522944348</v>
+        <v>4.109890522944326</v>
       </c>
       <c r="D20">
         <v>2017</v>
@@ -746,13 +734,13 @@
         <v>2017</v>
       </c>
       <c r="C21">
-        <v>1.715791310593229</v>
+        <v>1.715791310593251</v>
       </c>
       <c r="D21">
         <v>2018</v>
       </c>
       <c r="E21">
-        <v>1.687339605296523</v>
+        <v>1.687339605296501</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -769,7 +757,7 @@
         <v>2018</v>
       </c>
       <c r="E22">
-        <v>0.02883756256675252</v>
+        <v>0.02883756256673031</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -780,7 +768,7 @@
         <v>2018</v>
       </c>
       <c r="C23">
-        <v>1.862609889357314</v>
+        <v>1.862609889357336</v>
       </c>
       <c r="D23">
         <v>2019</v>
@@ -803,7 +791,7 @@
         <v>2019</v>
       </c>
       <c r="E24">
-        <v>-2.079848588862154</v>
+        <v>-2.079848588862143</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -820,7 +808,7 @@
         <v>2019</v>
       </c>
       <c r="E25">
-        <v>2.147322685428343</v>
+        <v>2.147322685428366</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -837,7 +825,7 @@
         <v>2019</v>
       </c>
       <c r="E26">
-        <v>0.9262553939922924</v>
+        <v>0.9262553939923146</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -865,13 +853,13 @@
         <v>2019</v>
       </c>
       <c r="C28">
-        <v>0.8934982674867697</v>
+        <v>0.893498267486792</v>
       </c>
       <c r="D28">
         <v>2020</v>
       </c>
       <c r="E28">
-        <v>-1.194610791899997</v>
+        <v>-1.194610791899986</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -905,7 +893,7 @@
         <v>2020</v>
       </c>
       <c r="E30">
-        <v>2.928189816005666</v>
+        <v>2.928189816005689</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -916,13 +904,13 @@
         <v>2020</v>
       </c>
       <c r="C31">
-        <v>2.306826470345347</v>
+        <v>2.306826470345391</v>
       </c>
       <c r="D31">
         <v>2021</v>
       </c>
       <c r="E31">
-        <v>1.405199465409468</v>
+        <v>1.40519946540949</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -939,7 +927,7 @@
         <v>2021</v>
       </c>
       <c r="E32">
-        <v>0.8024032015999882</v>
+        <v>0.8024032016000104</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -950,13 +938,13 @@
         <v>2020</v>
       </c>
       <c r="C33">
-        <v>3.265677646667919</v>
+        <v>3.265677646667942</v>
       </c>
       <c r="D33">
         <v>2021</v>
       </c>
       <c r="E33">
-        <v>5.715169758464977</v>
+        <v>5.715169758465</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -973,7 +961,7 @@
         <v>2021</v>
       </c>
       <c r="E34">
-        <v>3.828814763561761</v>
+        <v>3.828814763561783</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -984,13 +972,13 @@
         <v>2021</v>
       </c>
       <c r="C35">
-        <v>0.297438131004113</v>
+        <v>0.2974381310041352</v>
       </c>
       <c r="D35">
         <v>2022</v>
       </c>
       <c r="E35">
-        <v>-2.009776081564674</v>
+        <v>-2.009776081564663</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1007,7 +995,7 @@
         <v>2022</v>
       </c>
       <c r="E36">
-        <v>0.8023688159249254</v>
+        <v>0.8023688159249032</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1024,7 +1012,7 @@
         <v>2022</v>
       </c>
       <c r="E37">
-        <v>6.778609849419781</v>
+        <v>6.778609849419737</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1035,7 +1023,7 @@
         <v>2021</v>
       </c>
       <c r="C38">
-        <v>2.777797690741424</v>
+        <v>2.777797690741446</v>
       </c>
       <c r="D38">
         <v>2022</v>
@@ -1052,7 +1040,7 @@
         <v>2022</v>
       </c>
       <c r="C39">
-        <v>2.475264839201441</v>
+        <v>2.475264839201419</v>
       </c>
       <c r="D39">
         <v>2023</v>
@@ -1069,13 +1057,13 @@
         <v>2022</v>
       </c>
       <c r="C40">
-        <v>0.06579575777909685</v>
+        <v>0.06579575777907465</v>
       </c>
       <c r="D40">
         <v>2023</v>
       </c>
       <c r="E40">
-        <v>0.2740865344839527</v>
+        <v>0.2740865344839749</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1120,13 +1108,13 @@
         <v>2023</v>
       </c>
       <c r="C43">
-        <v>1.076435582022306</v>
+        <v>1.076435582022328</v>
       </c>
       <c r="D43">
         <v>2024</v>
       </c>
       <c r="E43">
-        <v>2.516861149382388</v>
+        <v>2.51686114938241</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1154,13 +1142,13 @@
         <v>2023</v>
       </c>
       <c r="C45">
-        <v>-1.650648527511467</v>
+        <v>-1.650648527511434</v>
       </c>
       <c r="D45">
         <v>2024</v>
       </c>
       <c r="E45">
-        <v>-0.2006752520846367</v>
+        <v>-0.2006752520846145</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1171,13 +1159,13 @@
         <v>2023</v>
       </c>
       <c r="C46">
-        <v>-1.432689847121871</v>
+        <v>-1.432689847121826</v>
       </c>
       <c r="D46">
         <v>2024</v>
       </c>
       <c r="E46">
-        <v>0.1752798163574099</v>
+        <v>0.1752798163574321</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1194,7 +1182,7 @@
         <v>2025</v>
       </c>
       <c r="E47">
-        <v>1.396505962682815</v>
+        <v>1.396505962682837</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1211,7 +1199,7 @@
         <v>2025</v>
       </c>
       <c r="E48">
-        <v>-1.696610696428325</v>
+        <v>-1.696610696428313</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1239,7 +1227,7 @@
         <v>2024</v>
       </c>
       <c r="C50">
-        <v>2.033479419175133</v>
+        <v>2.033479419175155</v>
       </c>
       <c r="D50">
         <v>2025</v>
@@ -1256,7 +1244,7 @@
         <v>2025</v>
       </c>
       <c r="C51">
-        <v>3.147579643557941</v>
+        <v>3.147579643557918</v>
       </c>
       <c r="D51">
         <v>2026</v>
@@ -1279,7 +1267,7 @@
         <v>2026</v>
       </c>
       <c r="E52">
-        <v>-1.362365718491865</v>
+        <v>-1.362365718491854</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1290,7 +1278,7 @@
         <v>2025</v>
       </c>
       <c r="C53">
-        <v>2.581716327283545</v>
+        <v>2.581716327283523</v>
       </c>
       <c r="D53">
         <v>2026</v>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_PUBCON_yoy_AVERAGE_1_9_full.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_PUBCON_yoy_AVERAGE_1_9_full.xlsx
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E53"/>
+  <dimension ref="A1:E54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1287,6 +1287,23 @@
         <v>2.939709541563884</v>
       </c>
     </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="2">
+        <v>45986</v>
+      </c>
+      <c r="B54">
+        <v>2025</v>
+      </c>
+      <c r="C54">
+        <v>2.622852459381209</v>
+      </c>
+      <c r="D54">
+        <v>2026</v>
+      </c>
+      <c r="E54">
+        <v>2.689750575689809</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
